--- a/Sayali Deshpande_Compose mail assignment.xlsx
+++ b/Sayali Deshpande_Compose mail assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e120b328802b3572/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{61807C4A-CDA6-4EFC-BCD4-214A4B513A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1401FCF-F9B2-4805-AE73-7A53B888120C}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{61807C4A-CDA6-4EFC-BCD4-214A4B513A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4C1597-FC9E-4DE2-903C-8C729699CC27}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A149334-7E07-4F17-8A05-2FCD2D130654}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="165">
   <si>
     <t>TC_ID</t>
   </si>
@@ -543,13 +543,1249 @@
   </si>
   <si>
     <t>Verify that user is able to add signature.</t>
+  </si>
+  <si>
+    <t>BDD style Scenarios:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 1: User successfully composes and sends an email.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged into the email account
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the inbox page
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the "Compose" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the "Compose New Email" window
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "recipient@example.com" in the "To" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "Test Subject" in the "Subject" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "This is a test email body." in the "Body" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks the "Send" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should be sent successfully
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see a "Message Sent" confirmation
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should appear in the "Sent" folder
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Scenario 2: User tries to send an email without entering the recipient email address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged into the email account
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the inbox page
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the "Compose" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the "Compose New Email" window
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user leaves the "To" field empty
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "Test Subject" in the "Subject" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "This is a test email body." in the "Body" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks the "Send" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see a validation message saying "Recipient email is required"
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Scenario 3: User enters an invalid email address in the "To" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged into the email account
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the inbox page
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the "Compose" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the "Compose New Email" window
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "invalidemail" in the "To" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "Test Subject" in the "Subject" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "This is a test email body." in the "Body" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks the "Send" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see a validation message saying "Please enter a valid email address"
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 5: User attempts to send an email without a subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged into the email account
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the inbox page
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the "Compose" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the "Compose New Email" window
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "recipient@example.com" in the "To" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user leaves the "Subject" field empty
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "This is a test email body." in the "Body" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks the "Send" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see a validation message saying "Subject is required"
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 6: User attaches a file to the email and sends it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged into the email account
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the inbox page
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the "Compose" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the "Compose New Email" window
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "recipient@example.com" in the "To" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "Test Subject with Attachment" in the "Subject" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user enters "This is a test email with an attachment." in the "Body" field
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the "Attach File" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user selects a file "file.txt" to attach
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks the "Send" button
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should be sent successfully with the attachment
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see a "Message Sent" confirmation
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should appear in the "Sent" folder with the attached file.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +1807,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -580,7 +1824,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -603,11 +1847,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -617,6 +1898,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,6 +1926,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D3B8BA-64DF-4348-8436-808455C6147E}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,7 +3165,493 @@
         <v>106</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
